--- a/我的家/装修/水电点位.xlsx
+++ b/我的家/装修/水电点位.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KENNY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="5925" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="弱电" sheetId="4" r:id="rId5"/>
     <sheet name="专线" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>厨房</t>
   </si>
@@ -100,9 +100,6 @@
     <t>合计</t>
   </si>
   <si>
-    <t>筒灯(1),弱电箱(1)</t>
-  </si>
-  <si>
     <t>主灯(1)，书桌灯(1)</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t>16A带开关</t>
   </si>
   <si>
-    <t>热水器(1),马桶盖(1)</t>
-  </si>
-  <si>
-    <t>热水器(1),洗衣机(1)</t>
-  </si>
-  <si>
     <t>客厅</t>
   </si>
   <si>
@@ -249,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燃气灶(1),消毒柜(1),油烟机(1),柜底灯(1),电压力锅(1),微波炉(1),水槽下(1)(防水盒1),热水壶(1),预留(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰箱(1)(防水盒1),电吹风(1)(防水盒1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,23 +314,39 @@
   <si>
     <t>浴霸开关(预留一组线)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10A-燃气灶下(燃气灶1+消毒柜1),微波炉(1),吊顶上(1,油烟机),水槽下方(1,带防水盒)
+10A带开-下水管右边(1+1，需要有一定的间隔),水槽两边(1+1),推拉门左边(1)</t>
+  </si>
+  <si>
+    <t>热水器(1带开关),洗衣机(1带开关)</t>
+  </si>
+  <si>
+    <t>灯(1)，凉霸(1+1)</t>
+  </si>
+  <si>
+    <t>筒灯(1)，弱电箱(1)</t>
+  </si>
+  <si>
+    <t>马桶盖(1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,11 +372,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,26 +694,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <f>97*22</f>
         <v>2134</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <f>B2</f>
@@ -716,46 +722,46 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <f>双控版!I19</f>
         <v>3234</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <f>单控版!G19</f>
-        <v>2178</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <f>插座!G18</f>
-        <v>3182</v>
+        <v>3108</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <f>插座!G18</f>
-        <v>3182</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <f>弱电!D12</f>
         <v>435</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <f>弱电!D12</f>
@@ -764,14 +770,14 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <f>专线!H11</f>
         <v>2184</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <f>专线!H11</f>
@@ -780,7 +786,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="G10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -789,15 +795,15 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>11169</v>
+        <v>11095</v>
       </c>
       <c r="E11">
         <f>SUM(E2:E9)</f>
-        <v>10113</v>
+        <v>9907</v>
       </c>
       <c r="G11">
         <f>B11-E11</f>
-        <v>1056</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -812,14 +818,14 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -830,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -839,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -856,11 +862,11 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <f>B2+C2*2+D2*5+E2*1.5+F2*3+G2</f>
+        <f t="shared" ref="H2:H14" si="0">B2+C2*2+D2*5+E2*1.5+F2*3+G2</f>
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -871,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <f>B3+C3*2+D3*5+E3*1.5+F3*3+G3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I3" t="s">
@@ -886,11 +892,11 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f>B4+C4*2+D4*5+E4*1.5+F4*3+G4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -901,11 +907,11 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f>B5+C5*2+D5*5+E5*1.5+F5*3+G5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -916,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <f>B6+C6*2+D6*5+E6*1.5+F6*3+G6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" t="s">
@@ -934,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <f>B7+C7*2+D7*5+E7*1.5+F7*3+G7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I7" t="s">
@@ -952,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <f>B8+C8*2+D8*5+E8*1.5+F8*3+G8</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -970,22 +976,22 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <f>B9+C9*2+D9*5+E9*1.5+F9*3+G9</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="H10">
-        <f>B10+C10*2+D10*5+E10*1.5+F10*3+G10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -1003,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <f>B11+C11*2+D11*5+E11*1.5+F11*3+G11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I11" t="s">
@@ -1018,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <f>B12+C12*2+D12*5+E12*1.5+F12*3+G12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I12" t="s">
@@ -1033,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <f>B13+C13*2+D13*5+E13*1.5+F13*3+G13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I13" t="s">
@@ -1048,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f>B14+C14*2+D14*5+E14*1.5+F14*3+G14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I14" t="s">
@@ -1060,27 +1066,27 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:G17" si="0">SUM(B2:B15)</f>
+        <f t="shared" ref="B17:G17" si="1">SUM(B2:B15)</f>
         <v>8</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H17">
@@ -1115,13 +1121,13 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1150,14 +1156,14 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>B2+C2*2+D2*5+E2</f>
-        <v>5</v>
+        <f t="shared" ref="F2:F14" si="0">B2+C2*2+D2*5+E2</f>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1168,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f>B3+C3*2+D3*5+E3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G3" t="s">
@@ -1183,11 +1189,11 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>B4+C4*2+D4*5+E4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1198,11 +1204,11 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f>B5+C5*2+D5*5+E5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1213,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f>B6+C6*2+D6*5+E6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -1228,11 +1234,11 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <f>B7+C7*2+D7*5+E7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1246,16 +1252,16 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <f>B8+C8*2+D8*5+E8</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1264,22 +1270,22 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <f>B9+C9*2+D9*5+E9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="F10">
-        <f>B10+C10*2+D10*5+E10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -1294,11 +1300,11 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <f>B11+C11*2+D11*5+E11</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1309,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f>B12+C12*2+D12*5+E12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1324,11 +1330,11 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <f>B13+C13*2+D13*5+E13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1339,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <f>B14+C14*2+D14*5+E14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" t="s">
@@ -1351,15 +1357,15 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:D17" si="0">SUM(B2:B15)</f>
+        <f t="shared" ref="B17:D17" si="1">SUM(B2:B15)</f>
         <v>12</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E17">
@@ -1368,12 +1374,12 @@
       </c>
       <c r="F17">
         <f>SUM(F2:F15)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -1391,11 +1397,11 @@
     <row r="19" spans="1:7">
       <c r="F19">
         <f>F17*F18</f>
-        <v>2178</v>
+        <v>2046</v>
       </c>
       <c r="G19">
         <f>F19</f>
-        <v>2178</v>
+        <v>2046</v>
       </c>
     </row>
   </sheetData>
@@ -1409,33 +1415,33 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="94.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -1452,11 +1458,11 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>SUM(B2:D2)</f>
+        <f t="shared" ref="G2:G13" si="0">SUM(B2:D2)</f>
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1466,21 +1472,18 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f>SUM(B3:D3)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" customHeight="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1494,26 +1497,26 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>69</v>
+      <c r="H4" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1527,11 +1530,11 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1542,16 +1545,16 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1560,26 +1563,26 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="G9">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1593,11 +1596,11 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f>SUM(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1611,11 +1614,11 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>SUM(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1629,11 +1632,11 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>SUM(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1644,11 +1647,11 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <f>SUM(B13:D13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1656,33 +1659,33 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <f>SUM(B2:B15)</f>
+        <f t="shared" ref="B16:G16" si="1">SUM(B2:B15)</f>
         <v>31</v>
       </c>
       <c r="C16">
-        <f>SUM(C2:C15)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D16">
-        <f>SUM(D2:D15)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="E16">
-        <f>SUM(E2:E15)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F16">
-        <f>SUM(F2:F15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f>SUM(G2:G15)</f>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>74</v>
@@ -1690,16 +1693,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <f>G16*G17</f>
-        <v>3182</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>26</v>
@@ -1729,42 +1732,42 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1789,7 +1792,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1839,7 +1842,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1864,7 +1867,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>139</v>
@@ -1938,7 +1941,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <f>B10*B11</f>
@@ -1964,41 +1967,41 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1840</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B8" si="2">B2</f>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <f t="shared" si="2"/>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
